--- a/Data/Villa copy.xlsx
+++ b/Data/Villa copy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikwahlstrom/Performance_Engineering/assignment4-construction-project/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vegardhatleli/Library/Mobile Documents/com~apple~CloudDocs/NTNU/I&amp;IKT Vår 2023/Avanserte verktøy for performace engineering/innlevering4/assignment4-construction-project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F32A90-B718-D34E-8A7D-03E83B3DF4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81DA7C6-26C6-B74A-8782-C04336A6CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
